--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>809325.4306416854</v>
+        <v>806477.2410148499</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.86094179307564</v>
+        <v>13.86094179307565</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>22.82047985379099</v>
+        <v>22.82047985379034</v>
       </c>
       <c r="L2" t="n">
-        <v>8.240236561097419</v>
+        <v>8.240236561098044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.50786806706105</v>
+        <v>5.507868067059151</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -747,22 +747,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>20.10027865521853</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.827660750590934</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>22.82047985379099</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>13.27261790462818</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.82047985379099</v>
+        <v>22.82047985379034</v>
       </c>
       <c r="R3" t="n">
-        <v>22.82047985379099</v>
+        <v>22.82047985379034</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>22.82047985379034</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.70732065777799</v>
+        <v>47.11527409474244</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>12.10299546346979</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
-        <v>17.14684397594775</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="R5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -981,22 +981,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44799022605971</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.18894706358476</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>12.84193026251983</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1136,25 +1136,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>81.30196747731208</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="G8" t="n">
-        <v>13.38870434448781</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="H8" t="n">
-        <v>61.03721739111359</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>18.59473170946475</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>15.61164031771693</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3531516584621</v>
+        <v>95.35315165846217</v>
       </c>
       <c r="S8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,16 +1215,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="G9" t="n">
-        <v>7.396679373398278</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>30.08282103867677</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>9.256558775821503</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>59.40945122353428</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>3.625377488803504</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.792004777351224</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>102.0660356638781</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292585</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589019</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>27.32239466140648</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>138.765408440357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>121.2979461190355</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>288.3419405557221</v>
+        <v>60.39891795734115</v>
       </c>
       <c r="I14" t="n">
-        <v>17.98965543945171</v>
+        <v>17.98965543945184</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.2458640156826</v>
+        <v>95.24586401568274</v>
       </c>
       <c r="T14" t="n">
-        <v>201.239718576303</v>
+        <v>201.2397185763031</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9462261850435</v>
+        <v>250.9462261850436</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>77.40984598118328</v>
       </c>
       <c r="G16" t="n">
-        <v>165.7513658948475</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.314972803696</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>88.09919003974917</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>73.5453848638972</v>
+        <v>184.9862434029472</v>
       </c>
       <c r="T16" t="n">
-        <v>218.3763319019425</v>
+        <v>218.3763319019426</v>
       </c>
       <c r="U16" t="n">
-        <v>286.196868622112</v>
+        <v>286.1968686221121</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.63566166346871</v>
+        <v>63.63566166346879</v>
       </c>
       <c r="T17" t="n">
         <v>169.6295162240891</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3360238328295</v>
+        <v>41.61558612467275</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.9072985956825</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
-        <v>134.1411635426335</v>
+        <v>134.1411635426336</v>
       </c>
       <c r="H19" t="n">
         <v>110.704770451482</v>
       </c>
       <c r="I19" t="n">
-        <v>56.48898768753514</v>
+        <v>56.48898768753522</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.98202365203525</v>
+        <v>44.98202365203533</v>
       </c>
       <c r="S19" t="n">
-        <v>153.3760410507332</v>
+        <v>153.3760410507333</v>
       </c>
       <c r="T19" t="n">
-        <v>116.389758830671</v>
+        <v>186.7661295497286</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5866662698982</v>
+        <v>184.2102955508386</v>
       </c>
       <c r="V19" t="n">
         <v>220.5274409716141</v>
@@ -2065,10 +2065,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>173.40320160311</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.63566166346875</v>
+        <v>63.6356616634688</v>
       </c>
       <c r="T20" t="n">
         <v>169.6295162240891</v>
@@ -2144,10 +2144,10 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X20" t="n">
-        <v>160.4004606180985</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
         <v>134.1411635426336</v>
       </c>
       <c r="H22" t="n">
-        <v>110.704770451482</v>
+        <v>40.32839973242248</v>
       </c>
       <c r="I22" t="n">
-        <v>56.48898768753519</v>
+        <v>56.48898768753524</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.98202365203531</v>
+        <v>44.98202365203536</v>
       </c>
       <c r="S22" t="n">
-        <v>82.9996703316739</v>
+        <v>153.3760410507333</v>
       </c>
       <c r="T22" t="n">
         <v>186.7661295497286</v>
@@ -2302,10 +2302,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H24" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189007</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2479,22 +2479,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
         <v>254.5831063612652</v>
@@ -2539,10 +2539,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2570,7 +2570,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295183</v>
+        <v>60.32014642295204</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
         <v>254.5831063612652</v>
@@ -2776,10 +2776,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368234</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998788</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295183</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645681</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038405</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2950,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510269</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612652</v>
@@ -3013,10 +3013,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295183</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3187,25 +3187,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943544</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
         <v>186.4872700401421</v>
@@ -3250,7 +3250,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998809</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
         <v>375.2658433894975</v>
@@ -3281,7 +3281,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3332,7 +3332,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G37" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
         <v>254.5831063612652</v>
@@ -3487,10 +3487,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295183</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3661,13 +3661,13 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
         <v>117.0052706659985</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943545</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707174</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424834</v>
@@ -3740,7 +3740,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
         <v>323.072839268469</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295176</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3904,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
         <v>113.8108456707173</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453118</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
         <v>254.5831063612652</v>
@@ -3964,7 +3964,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295248</v>
+        <v>60.32014642295176</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="45">
@@ -4141,7 +4141,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707173</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V46" t="n">
         <v>220.5274409716141</v>
@@ -4201,7 +4201,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.14655146878358</v>
+        <v>85.71841631712179</v>
       </c>
       <c r="C2" t="n">
-        <v>54.14655146878358</v>
+        <v>85.71841631712179</v>
       </c>
       <c r="D2" t="n">
-        <v>54.14655146878358</v>
+        <v>85.71841631712179</v>
       </c>
       <c r="E2" t="n">
-        <v>54.14655146878358</v>
+        <v>85.71841631712179</v>
       </c>
       <c r="F2" t="n">
-        <v>47.20105071958011</v>
+        <v>78.77291556791832</v>
       </c>
       <c r="G2" t="n">
-        <v>33.20009941344309</v>
+        <v>64.77196426178129</v>
       </c>
       <c r="H2" t="n">
-        <v>33.20009941344309</v>
+        <v>64.77196426178129</v>
       </c>
       <c r="I2" t="n">
-        <v>33.20009941344309</v>
+        <v>64.77196426178129</v>
       </c>
       <c r="J2" t="n">
-        <v>33.20009941344309</v>
+        <v>64.77196426178129</v>
       </c>
       <c r="K2" t="n">
-        <v>10.14910966213906</v>
+        <v>41.72097451047792</v>
       </c>
       <c r="L2" t="n">
-        <v>1.825638388303279</v>
+        <v>33.39750323664151</v>
       </c>
       <c r="M2" t="n">
-        <v>24.41791344355636</v>
+        <v>55.98977829189394</v>
       </c>
       <c r="N2" t="n">
-        <v>47.01018849880944</v>
+        <v>78.58205334714637</v>
       </c>
       <c r="O2" t="n">
-        <v>59.71005456682505</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="P2" t="n">
-        <v>54.14655146878358</v>
+        <v>85.71841631712179</v>
       </c>
       <c r="Q2" t="n">
-        <v>54.14655146878358</v>
+        <v>85.71841631712179</v>
       </c>
       <c r="R2" t="n">
-        <v>54.14655146878358</v>
+        <v>85.71841631712179</v>
       </c>
       <c r="S2" t="n">
-        <v>54.14655146878358</v>
+        <v>85.71841631712179</v>
       </c>
       <c r="T2" t="n">
-        <v>54.14655146878358</v>
+        <v>85.71841631712179</v>
       </c>
       <c r="U2" t="n">
-        <v>54.14655146878358</v>
+        <v>85.71841631712179</v>
       </c>
       <c r="V2" t="n">
-        <v>54.14655146878358</v>
+        <v>85.71841631712179</v>
       </c>
       <c r="W2" t="n">
-        <v>54.14655146878358</v>
+        <v>85.71841631712179</v>
       </c>
       <c r="X2" t="n">
-        <v>54.14655146878358</v>
+        <v>85.71841631712179</v>
       </c>
       <c r="Y2" t="n">
-        <v>54.14655146878358</v>
+        <v>85.71841631712179</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.17993991255591</v>
+        <v>22.12895016125124</v>
       </c>
       <c r="C3" t="n">
-        <v>45.17993991255591</v>
+        <v>22.12895016125124</v>
       </c>
       <c r="D3" t="n">
-        <v>45.17993991255591</v>
+        <v>22.12895016125124</v>
       </c>
       <c r="E3" t="n">
-        <v>45.17993991255591</v>
+        <v>22.12895016125124</v>
       </c>
       <c r="F3" t="n">
-        <v>45.17993991255591</v>
+        <v>1.825638388303227</v>
       </c>
       <c r="G3" t="n">
-        <v>45.17993991255591</v>
+        <v>1.825638388303227</v>
       </c>
       <c r="H3" t="n">
-        <v>38.28331289175699</v>
+        <v>1.825638388303227</v>
       </c>
       <c r="I3" t="n">
-        <v>38.28331289175699</v>
+        <v>1.825638388303227</v>
       </c>
       <c r="J3" t="n">
-        <v>15.23232314045295</v>
+        <v>1.825638388303227</v>
       </c>
       <c r="K3" t="n">
-        <v>1.825638388303279</v>
+        <v>1.825638388303227</v>
       </c>
       <c r="L3" t="n">
-        <v>24.41791344355636</v>
+        <v>24.41791344355566</v>
       </c>
       <c r="M3" t="n">
-        <v>32.89607212615499</v>
+        <v>47.01018849880809</v>
       </c>
       <c r="N3" t="n">
-        <v>55.48834718140807</v>
+        <v>55.48834718140648</v>
       </c>
       <c r="O3" t="n">
-        <v>78.08062223666116</v>
+        <v>78.08062223665891</v>
       </c>
       <c r="P3" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="Q3" t="n">
-        <v>68.23092966385994</v>
+        <v>68.23092966385798</v>
       </c>
       <c r="R3" t="n">
-        <v>45.17993991255591</v>
+        <v>45.17993991255461</v>
       </c>
       <c r="S3" t="n">
-        <v>45.17993991255591</v>
+        <v>22.12895016125124</v>
       </c>
       <c r="T3" t="n">
-        <v>45.17993991255591</v>
+        <v>22.12895016125124</v>
       </c>
       <c r="U3" t="n">
-        <v>45.17993991255591</v>
+        <v>22.12895016125124</v>
       </c>
       <c r="V3" t="n">
-        <v>45.17993991255591</v>
+        <v>22.12895016125124</v>
       </c>
       <c r="W3" t="n">
-        <v>45.17993991255591</v>
+        <v>22.12895016125124</v>
       </c>
       <c r="X3" t="n">
-        <v>45.17993991255591</v>
+        <v>22.12895016125124</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.17993991255591</v>
+        <v>22.12895016125124</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="C4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="D4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="E4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="F4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="G4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="H4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="I4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="J4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="K4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="L4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="M4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="N4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="O4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="P4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="Q4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="R4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="S4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="T4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="U4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="V4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="W4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="X4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
       <c r="Y4" t="n">
-        <v>91.28191941516397</v>
+        <v>91.28191941516134</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="C5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="D5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="E5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="F5" t="n">
-        <v>47.37467136741799</v>
+        <v>97.67265826350346</v>
       </c>
       <c r="G5" t="n">
-        <v>33.528892925218</v>
+        <v>50.08147230921817</v>
       </c>
       <c r="H5" t="n">
-        <v>33.528892925218</v>
+        <v>50.08147230921817</v>
       </c>
       <c r="I5" t="n">
-        <v>33.528892925218</v>
+        <v>50.08147230921817</v>
       </c>
       <c r="J5" t="n">
-        <v>21.30364498231921</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="K5" t="n">
         <v>3.98360056216997</v>
@@ -4589,28 +4589,28 @@
         <v>104.6181590127069</v>
       </c>
       <c r="R5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="S5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="T5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="U5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="V5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="W5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="X5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="Y5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.8492079802444</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="C6" t="n">
-        <v>167.8492079802444</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="D6" t="n">
-        <v>167.8492079802444</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="E6" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F6" t="n">
-        <v>151.23507643877</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G6" t="n">
-        <v>151.23507643877</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H6" t="n">
-        <v>100.9370895426845</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I6" t="n">
-        <v>50.63910264659903</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4650,16 +4650,16 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L6" t="n">
-        <v>22.54896088111074</v>
+        <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O6" t="n">
-        <v>170.4401317516709</v>
+        <v>198.1973125878844</v>
       </c>
       <c r="P6" t="n">
         <v>199.1800281084985</v>
@@ -4677,19 +4677,19 @@
         <v>167.8492079802444</v>
       </c>
       <c r="U6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="V6" t="n">
-        <v>167.8492079802444</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="W6" t="n">
-        <v>167.8492079802444</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="X6" t="n">
-        <v>167.8492079802444</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.8492079802444</v>
+        <v>54.28158745825545</v>
       </c>
     </row>
     <row r="7">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.8747695643146</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="C8" t="n">
-        <v>109.8747695643146</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="D8" t="n">
-        <v>109.8747695643146</v>
+        <v>254.2417925668743</v>
       </c>
       <c r="E8" t="n">
-        <v>109.8747695643146</v>
+        <v>254.2417925668743</v>
       </c>
       <c r="F8" t="n">
-        <v>102.9292688151111</v>
+        <v>140.9966813295779</v>
       </c>
       <c r="G8" t="n">
-        <v>89.40532503280019</v>
+        <v>27.7515700922815</v>
       </c>
       <c r="H8" t="n">
-        <v>27.75157009228141</v>
+        <v>27.7515700922815</v>
       </c>
       <c r="I8" t="n">
-        <v>27.75157009228141</v>
+        <v>27.7515700922815</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687545</v>
+        <v>32.11753523687528</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773399</v>
+        <v>97.73708609773371</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083929</v>
+        <v>202.4209174083924</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320674</v>
+        <v>313.4124509320668</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416797</v>
+        <v>404.8833474416789</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996937</v>
       </c>
       <c r="Q8" t="n">
-        <v>432.6813068454352</v>
+        <v>432.6813068454342</v>
       </c>
       <c r="R8" t="n">
-        <v>336.3649920389078</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="S8" t="n">
-        <v>223.1198808016112</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="T8" t="n">
-        <v>223.1198808016112</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="U8" t="n">
-        <v>223.1198808016112</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="V8" t="n">
-        <v>223.1198808016112</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="W8" t="n">
-        <v>223.1198808016112</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="X8" t="n">
-        <v>223.1198808016112</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="Y8" t="n">
-        <v>109.8747695643146</v>
+        <v>336.3649920389067</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>356.1757398283467</v>
+        <v>152.6008119651456</v>
       </c>
       <c r="C9" t="n">
-        <v>356.1757398283467</v>
+        <v>152.6008119651456</v>
       </c>
       <c r="D9" t="n">
-        <v>242.93062859105</v>
+        <v>152.6008119651456</v>
       </c>
       <c r="E9" t="n">
-        <v>129.6855173537534</v>
+        <v>152.6008119651456</v>
       </c>
       <c r="F9" t="n">
-        <v>16.4404061164568</v>
+        <v>39.3557007278492</v>
       </c>
       <c r="G9" t="n">
-        <v>8.969012809993892</v>
+        <v>39.3557007278492</v>
       </c>
       <c r="H9" t="n">
-        <v>8.969012809993892</v>
+        <v>39.3557007278492</v>
       </c>
       <c r="I9" t="n">
-        <v>8.969012809993892</v>
+        <v>39.3557007278492</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="K9" t="n">
-        <v>36.22166818534551</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="L9" t="n">
-        <v>119.1887676792232</v>
+        <v>91.93611230387147</v>
       </c>
       <c r="M9" t="n">
-        <v>176.439439640395</v>
+        <v>202.9276458275457</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640694</v>
+        <v>287.4309731640687</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953194</v>
+        <v>387.4830745953186</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996937</v>
       </c>
       <c r="Q9" t="n">
-        <v>439.100581130178</v>
+        <v>439.100581130177</v>
       </c>
       <c r="R9" t="n">
-        <v>356.1757398283467</v>
+        <v>439.100581130177</v>
       </c>
       <c r="S9" t="n">
-        <v>356.1757398283467</v>
+        <v>439.100581130177</v>
       </c>
       <c r="T9" t="n">
-        <v>356.1757398283467</v>
+        <v>439.100581130177</v>
       </c>
       <c r="U9" t="n">
-        <v>356.1757398283467</v>
+        <v>439.100581130177</v>
       </c>
       <c r="V9" t="n">
-        <v>356.1757398283467</v>
+        <v>325.8554698928806</v>
       </c>
       <c r="W9" t="n">
-        <v>356.1757398283467</v>
+        <v>212.6103586555843</v>
       </c>
       <c r="X9" t="n">
-        <v>356.1757398283467</v>
+        <v>152.6008119651456</v>
       </c>
       <c r="Y9" t="n">
-        <v>356.1757398283467</v>
+        <v>152.6008119651456</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="C10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="D10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="E10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="F10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="G10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="H10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="I10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="J10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="K10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="L10" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="M10" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="N10" t="n">
-        <v>12.63101027343186</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="O10" t="n">
-        <v>12.63101027343186</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="R10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="S10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="T10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="U10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="V10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="W10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="X10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993874</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1303.529887077737</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C11" t="n">
-        <v>934.5673701373254</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D11" t="n">
-        <v>934.5673701373254</v>
+        <v>584.681572308276</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373254</v>
+        <v>584.681572308276</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477179</v>
+        <v>584.681572308276</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927146</v>
+        <v>169.6091221532724</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
         <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919562</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943749</v>
+        <v>1698.509627919562</v>
       </c>
     </row>
     <row r="12">
@@ -5109,19 +5109,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158131</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>793.5839474470783</v>
+        <v>561.0764108006844</v>
       </c>
       <c r="C13" t="n">
-        <v>624.6477645191715</v>
+        <v>392.1402278727775</v>
       </c>
       <c r="D13" t="n">
-        <v>624.6477645191715</v>
+        <v>242.0235884604417</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191715</v>
+        <v>94.11049487804858</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
         <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764915</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502323</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935982</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088497</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658023</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783666</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.74057757778</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W13" t="n">
-        <v>1021.573498345096</v>
+        <v>1191.507005672472</v>
       </c>
       <c r="X13" t="n">
-        <v>793.5839474470783</v>
+        <v>963.5174547744543</v>
       </c>
       <c r="Y13" t="n">
-        <v>793.5839474470783</v>
+        <v>742.7248756309241</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2037.383663455758</v>
+        <v>1684.615008185641</v>
       </c>
       <c r="C14" t="n">
-        <v>1668.421146515346</v>
+        <v>1315.65249124523</v>
       </c>
       <c r="D14" t="n">
-        <v>1310.155447908596</v>
+        <v>957.3867926384789</v>
       </c>
       <c r="E14" t="n">
-        <v>924.3671953103516</v>
+        <v>571.5985400402346</v>
       </c>
       <c r="F14" t="n">
-        <v>513.3812905207441</v>
+        <v>160.6126352506266</v>
       </c>
       <c r="G14" t="n">
-        <v>390.8581126227285</v>
+        <v>160.6126352506266</v>
       </c>
       <c r="H14" t="n">
-        <v>99.60362721290814</v>
+        <v>99.60362721290825</v>
       </c>
       <c r="I14" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J14" t="n">
-        <v>321.7197547946562</v>
+        <v>321.7197547946557</v>
       </c>
       <c r="K14" t="n">
-        <v>732.5869425049086</v>
+        <v>732.5869425049079</v>
       </c>
       <c r="L14" t="n">
-        <v>1279.205782079391</v>
+        <v>1279.20578207939</v>
       </c>
       <c r="M14" t="n">
         <v>1919.094000724846</v>
       </c>
       <c r="N14" t="n">
-        <v>2573.950088109355</v>
+        <v>2573.950088109354</v>
       </c>
       <c r="O14" t="n">
         <v>3178.976860646706</v>
       </c>
       <c r="P14" t="n">
-        <v>3660.852212359283</v>
+        <v>3660.852212359282</v>
       </c>
       <c r="Q14" t="n">
-        <v>3974.547786707331</v>
+        <v>3974.54778670733</v>
       </c>
       <c r="R14" t="n">
-        <v>4071.612904107441</v>
+        <v>4071.61290410744</v>
       </c>
       <c r="S14" t="n">
-        <v>3975.404960657257</v>
+        <v>3975.404960657255</v>
       </c>
       <c r="T14" t="n">
-        <v>3772.13251765089</v>
+        <v>3772.132517650889</v>
       </c>
       <c r="U14" t="n">
-        <v>3518.651481100341</v>
+        <v>3518.65148110034</v>
       </c>
       <c r="V14" t="n">
-        <v>3187.588593756771</v>
+        <v>3187.588593756769</v>
       </c>
       <c r="W14" t="n">
-        <v>3187.588593756771</v>
+        <v>2834.819938486655</v>
       </c>
       <c r="X14" t="n">
-        <v>2814.122835495691</v>
+        <v>2461.354180225575</v>
       </c>
       <c r="Y14" t="n">
-        <v>2423.983503519879</v>
+        <v>2071.214848249763</v>
       </c>
     </row>
     <row r="15">
@@ -5340,40 +5340,40 @@
         <v>618.1678372508577</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9303822454023</v>
+        <v>458.9303822454021</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3958242722872</v>
+        <v>312.3958242722871</v>
       </c>
       <c r="G15" t="n">
-        <v>176.3633844303749</v>
+        <v>176.3633844303748</v>
       </c>
       <c r="H15" t="n">
-        <v>89.05497268527733</v>
+        <v>89.05497268527732</v>
       </c>
       <c r="I15" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J15" t="n">
-        <v>81.43225808214882</v>
+        <v>205.7279980329771</v>
       </c>
       <c r="K15" t="n">
-        <v>372.0282999172189</v>
+        <v>496.3240398680471</v>
       </c>
       <c r="L15" t="n">
-        <v>410.7594407449951</v>
+        <v>496.3240398680471</v>
       </c>
       <c r="M15" t="n">
-        <v>940.1502935420004</v>
+        <v>1025.714892665053</v>
       </c>
       <c r="N15" t="n">
-        <v>1497.961191876644</v>
+        <v>1583.525790999696</v>
       </c>
       <c r="O15" t="n">
-        <v>1986.029391449523</v>
+        <v>2071.593990572575</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.414084216033</v>
+        <v>2443.978683339084</v>
       </c>
       <c r="Q15" t="n">
         <v>2557.424193196089</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>862.7137436187023</v>
+        <v>561.3017832571554</v>
       </c>
       <c r="C16" t="n">
-        <v>693.7775606907954</v>
+        <v>392.3656003292482</v>
       </c>
       <c r="D16" t="n">
-        <v>543.6609212784597</v>
+        <v>392.3656003292482</v>
       </c>
       <c r="E16" t="n">
-        <v>395.7478276960667</v>
+        <v>392.3656003292482</v>
       </c>
       <c r="F16" t="n">
-        <v>248.8578801981564</v>
+        <v>314.1738367118913</v>
       </c>
       <c r="G16" t="n">
-        <v>81.43225808214882</v>
+        <v>314.1738367118913</v>
       </c>
       <c r="H16" t="n">
-        <v>81.43225808214882</v>
+        <v>170.4213389303803</v>
       </c>
       <c r="I16" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J16" t="n">
-        <v>145.7639349251849</v>
+        <v>145.7639349251847</v>
       </c>
       <c r="K16" t="n">
-        <v>381.3174786021266</v>
+        <v>381.3174786021264</v>
       </c>
       <c r="L16" t="n">
-        <v>738.2713508649248</v>
+        <v>738.2713508649244</v>
       </c>
       <c r="M16" t="n">
-        <v>1125.018283634586</v>
+        <v>1125.018283634585</v>
       </c>
       <c r="N16" t="n">
-        <v>1508.003855186736</v>
+        <v>1508.003855186735</v>
       </c>
       <c r="O16" t="n">
         <v>1845.736723011684</v>
       </c>
       <c r="P16" t="n">
-        <v>2111.204854362885</v>
+        <v>2111.204854362884</v>
       </c>
       <c r="Q16" t="n">
-        <v>2211.566148063617</v>
+        <v>2211.566148063615</v>
       </c>
       <c r="R16" t="n">
-        <v>2211.566148063617</v>
+        <v>2211.566148063615</v>
       </c>
       <c r="S16" t="n">
-        <v>2137.277880524327</v>
+        <v>2024.711356747507</v>
       </c>
       <c r="T16" t="n">
-        <v>1916.695727088021</v>
+        <v>1804.129203311202</v>
       </c>
       <c r="U16" t="n">
-        <v>1627.60798100508</v>
+        <v>1515.04145722826</v>
       </c>
       <c r="V16" t="n">
-        <v>1372.923492799193</v>
+        <v>1260.356969022373</v>
       </c>
       <c r="W16" t="n">
-        <v>1083.506322762232</v>
+        <v>970.9397989854126</v>
       </c>
       <c r="X16" t="n">
-        <v>1083.506322762232</v>
+        <v>742.9502480873952</v>
       </c>
       <c r="Y16" t="n">
-        <v>862.7137436187023</v>
+        <v>742.9502480873952</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2119.566580433992</v>
+        <v>2119.566580433994</v>
       </c>
       <c r="C17" t="n">
-        <v>1782.533560819049</v>
+        <v>1782.533560819051</v>
       </c>
       <c r="D17" t="n">
-        <v>1456.197359537767</v>
+        <v>1456.197359537769</v>
       </c>
       <c r="E17" t="n">
-        <v>1102.338604264992</v>
+        <v>1102.338604264993</v>
       </c>
       <c r="F17" t="n">
-        <v>723.2821968008528</v>
+        <v>723.2821968008541</v>
       </c>
       <c r="G17" t="n">
         <v>340.7572461665006</v>
       </c>
       <c r="H17" t="n">
-        <v>81.43225808214879</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="I17" t="n">
-        <v>81.43225808214879</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J17" t="n">
-        <v>321.7197547946558</v>
+        <v>321.7197547946557</v>
       </c>
       <c r="K17" t="n">
-        <v>732.5869425049082</v>
+        <v>732.5869425049079</v>
       </c>
       <c r="L17" t="n">
         <v>1279.20578207939</v>
@@ -5528,7 +5528,7 @@
         <v>2573.950088109354</v>
       </c>
       <c r="O17" t="n">
-        <v>3178.976860646706</v>
+        <v>3178.976860646705</v>
       </c>
       <c r="P17" t="n">
         <v>3660.852212359283</v>
@@ -5543,22 +5543,22 @@
         <v>4007.334457982724</v>
       </c>
       <c r="T17" t="n">
-        <v>3835.991512301825</v>
+        <v>3835.991512301826</v>
       </c>
       <c r="U17" t="n">
-        <v>3614.439973076745</v>
+        <v>3793.955566721349</v>
       </c>
       <c r="V17" t="n">
-        <v>3315.306583058643</v>
+        <v>3494.822176703247</v>
       </c>
       <c r="W17" t="n">
-        <v>2994.467425113998</v>
+        <v>3173.983018758601</v>
       </c>
       <c r="X17" t="n">
-        <v>2652.931164178386</v>
+        <v>2832.44675782299</v>
       </c>
       <c r="Y17" t="n">
-        <v>2474.236923172646</v>
+        <v>2474.236923172647</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>176.3633844303748</v>
       </c>
       <c r="H18" t="n">
-        <v>89.05497268527731</v>
+        <v>89.05497268527732</v>
       </c>
       <c r="I18" t="n">
-        <v>81.43225808214879</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J18" t="n">
-        <v>81.43225808214879</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="K18" t="n">
-        <v>372.0282999172188</v>
+        <v>346.0793523301365</v>
       </c>
       <c r="L18" t="n">
-        <v>809.0930810985876</v>
+        <v>783.1441335115054</v>
       </c>
       <c r="M18" t="n">
-        <v>1338.483933895593</v>
+        <v>1312.534986308511</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.294832230236</v>
+        <v>1870.345884643154</v>
       </c>
       <c r="O18" t="n">
-        <v>1986.029391449523</v>
+        <v>2358.414084216033</v>
       </c>
       <c r="P18" t="n">
         <v>2358.414084216033</v>
@@ -5647,70 +5647,70 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>871.9488409701648</v>
+        <v>871.9488409701647</v>
       </c>
       <c r="C19" t="n">
-        <v>734.9421553677265</v>
+        <v>734.9421553677264</v>
       </c>
       <c r="D19" t="n">
-        <v>616.7550132808594</v>
+        <v>616.7550132808593</v>
       </c>
       <c r="E19" t="n">
-        <v>500.771417023935</v>
+        <v>500.7714170239348</v>
       </c>
       <c r="F19" t="n">
-        <v>385.8109668514933</v>
+        <v>385.810966851493</v>
       </c>
       <c r="G19" t="n">
-        <v>250.3148420609543</v>
+        <v>250.314842060954</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4918416049116</v>
+        <v>138.4918416049117</v>
       </c>
       <c r="I19" t="n">
-        <v>81.43225808214879</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J19" t="n">
-        <v>177.0580352538767</v>
+        <v>177.0580352538766</v>
       </c>
       <c r="K19" t="n">
         <v>443.9056792595101</v>
       </c>
       <c r="L19" t="n">
-        <v>832.1536518510002</v>
+        <v>832.1536518509999</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.194684949353</v>
+        <v>1250.194684949352</v>
       </c>
       <c r="N19" t="n">
         <v>1664.474356830194</v>
       </c>
       <c r="O19" t="n">
-        <v>2033.501324983835</v>
+        <v>2033.501324983834</v>
       </c>
       <c r="P19" t="n">
         <v>2330.263556663727</v>
       </c>
       <c r="Q19" t="n">
-        <v>2461.918950693151</v>
+        <v>2461.91895069315</v>
       </c>
       <c r="R19" t="n">
-        <v>2416.482563165842</v>
+        <v>2416.482563165841</v>
       </c>
       <c r="S19" t="n">
-        <v>2261.557269175203</v>
+        <v>2261.557269175202</v>
       </c>
       <c r="T19" t="n">
-        <v>2143.991856214929</v>
+        <v>2072.904613064365</v>
       </c>
       <c r="U19" t="n">
-        <v>1886.833607457456</v>
+        <v>1886.833607457457</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.078616577038</v>
+        <v>1664.078616577039</v>
       </c>
       <c r="W19" t="n">
-        <v>1406.590943865546</v>
+        <v>1406.590943865547</v>
       </c>
       <c r="X19" t="n">
         <v>1210.530890292997</v>
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2119.566580433992</v>
+        <v>2119.566580433993</v>
       </c>
       <c r="C20" t="n">
-        <v>1782.533560819049</v>
+        <v>1782.53356081905</v>
       </c>
       <c r="D20" t="n">
-        <v>1456.197359537767</v>
+        <v>1456.197359537768</v>
       </c>
       <c r="E20" t="n">
         <v>1102.338604264992</v>
       </c>
       <c r="F20" t="n">
-        <v>723.2821968008529</v>
+        <v>723.2821968008531</v>
       </c>
       <c r="G20" t="n">
         <v>340.7572461665006</v>
       </c>
       <c r="H20" t="n">
-        <v>81.43225808214879</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="I20" t="n">
-        <v>81.43225808214879</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J20" t="n">
-        <v>321.7197547946557</v>
+        <v>321.7197547946562</v>
       </c>
       <c r="K20" t="n">
         <v>732.5869425049082</v>
@@ -5762,7 +5762,7 @@
         <v>1919.094000724846</v>
       </c>
       <c r="N20" t="n">
-        <v>2573.950088109353</v>
+        <v>2573.950088109354</v>
       </c>
       <c r="O20" t="n">
         <v>3178.976860646705</v>
@@ -5780,22 +5780,22 @@
         <v>4007.334457982724</v>
       </c>
       <c r="T20" t="n">
-        <v>3835.991512301825</v>
+        <v>3835.991512301826</v>
       </c>
       <c r="U20" t="n">
-        <v>3614.439973076745</v>
+        <v>3614.439973076746</v>
       </c>
       <c r="V20" t="n">
         <v>3315.306583058643</v>
       </c>
       <c r="W20" t="n">
-        <v>2994.467425113997</v>
+        <v>2994.467425113998</v>
       </c>
       <c r="X20" t="n">
-        <v>2832.446757822989</v>
+        <v>2652.931164178387</v>
       </c>
       <c r="Y20" t="n">
-        <v>2474.236923172646</v>
+        <v>2294.721329528043</v>
       </c>
     </row>
     <row r="21">
@@ -5823,19 +5823,19 @@
         <v>176.3633844303749</v>
       </c>
       <c r="H21" t="n">
-        <v>89.05497268527732</v>
+        <v>89.05497268527733</v>
       </c>
       <c r="I21" t="n">
-        <v>81.43225808214879</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J21" t="n">
-        <v>172.7047685436829</v>
+        <v>205.727998032977</v>
       </c>
       <c r="K21" t="n">
-        <v>172.7047685436829</v>
+        <v>496.324039868047</v>
       </c>
       <c r="L21" t="n">
-        <v>609.7695497250517</v>
+        <v>933.3888210494157</v>
       </c>
       <c r="M21" t="n">
         <v>1139.160402522057</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>871.9488409701644</v>
+        <v>800.8615978196001</v>
       </c>
       <c r="C22" t="n">
-        <v>734.9421553677262</v>
+        <v>663.8549122171619</v>
       </c>
       <c r="D22" t="n">
-        <v>616.7550132808591</v>
+        <v>545.6677701302947</v>
       </c>
       <c r="E22" t="n">
-        <v>500.7714170239346</v>
+        <v>429.6841738733701</v>
       </c>
       <c r="F22" t="n">
-        <v>385.8109668514929</v>
+        <v>314.7237237009282</v>
       </c>
       <c r="G22" t="n">
-        <v>250.314842060954</v>
+        <v>179.2275989103889</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4918416049116</v>
+        <v>138.4918416049117</v>
       </c>
       <c r="I22" t="n">
-        <v>81.43225808214879</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J22" t="n">
-        <v>177.0580352538766</v>
+        <v>177.0580352538765</v>
       </c>
       <c r="K22" t="n">
-        <v>443.90567925951</v>
+        <v>443.9056792595099</v>
       </c>
       <c r="L22" t="n">
-        <v>832.1536518509999</v>
+        <v>832.1536518509997</v>
       </c>
       <c r="M22" t="n">
         <v>1250.194684949352</v>
@@ -5935,25 +5935,25 @@
         <v>2416.482563165841</v>
       </c>
       <c r="S22" t="n">
-        <v>2332.644512325767</v>
+        <v>2261.557269175202</v>
       </c>
       <c r="T22" t="n">
-        <v>2143.991856214929</v>
+        <v>2072.904613064365</v>
       </c>
       <c r="U22" t="n">
-        <v>1886.833607457456</v>
+        <v>1815.746364306892</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.078616577038</v>
+        <v>1592.991373426474</v>
       </c>
       <c r="W22" t="n">
-        <v>1406.590943865546</v>
+        <v>1335.503700714982</v>
       </c>
       <c r="X22" t="n">
-        <v>1210.530890292997</v>
+        <v>1139.443647142433</v>
       </c>
       <c r="Y22" t="n">
-        <v>1021.667808474935</v>
+        <v>950.5805653243713</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796684</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J24" t="n">
-        <v>216.5575109835859</v>
+        <v>216.5575109835861</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334507</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277776</v>
+        <v>535.3638672866897</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538067</v>
+        <v>1084.282331896979</v>
       </c>
       <c r="N24" t="n">
-        <v>2100.171002464469</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O24" t="n">
         <v>2168.542634771632</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L25" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O25" t="n">
         <v>2087.878830313936</v>
@@ -6166,13 +6166,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T25" t="n">
         <v>2144.901839127669</v>
@@ -6187,10 +6187,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G26" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511625</v>
@@ -6236,7 +6236,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233288</v>
@@ -6254,7 +6254,7 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400162</v>
@@ -6315,7 +6315,7 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>2100.171002464469</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O27" t="n">
         <v>2168.542634771632</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477722</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D28" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902782</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
         <v>2529.521427597205</v>
@@ -6412,22 +6412,22 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G29" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
         <v>337.4933016076836</v>
@@ -6470,7 +6470,7 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
         <v>2681.771598889755</v>
@@ -6482,16 +6482,16 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400163</v>
@@ -6534,34 +6534,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>519.5985603334505</v>
+        <v>235.0538732027192</v>
       </c>
       <c r="L30" t="n">
-        <v>973.3971899277778</v>
+        <v>688.8525027970467</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.315654538067</v>
+        <v>1237.770967407336</v>
       </c>
       <c r="N30" t="n">
-        <v>2100.171002464469</v>
+        <v>1815.626315333738</v>
       </c>
       <c r="O30" t="n">
-        <v>2168.542634771632</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="P30" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q30" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502091</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477708</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609036</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039791</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315373</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443609</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6643,28 +6643,28 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
         <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
         <v>84.98040897511625</v>
@@ -6701,7 +6701,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
@@ -6710,10 +6710,10 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612704</v>
@@ -6725,25 +6725,25 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="33">
@@ -6786,13 +6786,13 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N33" t="n">
-        <v>1662.137679823382</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
         <v>2555.644190323788</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D34" t="n">
         <v>617.6685920609043</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039798</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315388</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897932</v>
@@ -6856,19 +6856,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902786</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
         <v>2087.878830313936</v>
@@ -6886,7 +6886,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237501</v>
@@ -6920,55 +6920,55 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
         <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V35" t="n">
         <v>3496.718237382059</v>
@@ -7008,13 +7008,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
         <v>519.5985603334505</v>
@@ -7023,7 +7023,7 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N36" t="n">
         <v>2049.239235375538</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354973</v>
@@ -7111,7 +7111,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
@@ -7126,7 +7126,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357083</v>
@@ -7135,7 +7135,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7163,7 +7163,7 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G38" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511625</v>
@@ -7172,22 +7172,22 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612704</v>
@@ -7202,7 +7202,7 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U38" t="n">
         <v>3795.851627400162</v>
@@ -7251,25 +7251,25 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>216.557510983586</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K39" t="n">
-        <v>326.515925275411</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="L39" t="n">
-        <v>326.515925275411</v>
+        <v>535.3638672866908</v>
       </c>
       <c r="M39" t="n">
-        <v>875.4343898857001</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.289737812102</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O39" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G40" t="n">
         <v>251.2943450749445</v>
@@ -7351,31 +7351,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7394,67 +7394,67 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
-        <v>235.0538732027192</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L42" t="n">
-        <v>688.8525027970467</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.626315333738</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502113</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C43" t="n">
-        <v>735.855734147773</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609059</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039814</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315396</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749455</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897942</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
         <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
         <v>1709.719201354973</v>
@@ -7591,16 +7591,16 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357084</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254982</v>
@@ -7631,13 +7631,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796679</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511625</v>
@@ -7649,16 +7649,16 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M44" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233288</v>
@@ -7676,22 +7676,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7728,19 @@
         <v>216.557510983586</v>
       </c>
       <c r="K45" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L45" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M45" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>2049.239235375538</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O45" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
         <v>2555.644190323788</v>
@@ -7780,73 +7780,73 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.174278704278</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L46" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902782</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -10999,7 +10999,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775366</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>33.6362413227228</v>
       </c>
       <c r="K46" t="n">
         <v>106.7437663446525</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>377.9418368861293</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873204</v>
+        <v>192.5417287234424</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.0986533615248</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>147.757589896234</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>289.0119573611873</v>
+        <v>410.3099034802229</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>227.9430225983811</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>68.01120204174796</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.7513658948476</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3149728036959</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>88.09919003974903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>76.59222600424921</v>
+        <v>76.59222600424928</v>
       </c>
       <c r="S16" t="n">
-        <v>111.4408585390499</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.7204377081569</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>177.7204377081571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>70.37637071905758</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>70.37637071905965</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>177.7204377081567</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>177.7204377081566</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>70.37637071905957</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.37637071905932</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.1245227799227e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
     </row>
     <row r="30">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-2.557953848736361e-13</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>832421.7487254934</v>
+        <v>832421.7487254932</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914582.0357042135</v>
+        <v>914582.035704213</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>980276.1393458316</v>
+        <v>980276.1393458317</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>999278.8350324235</v>
+        <v>999278.8350324236</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>999278.8350324235</v>
+        <v>999278.8350324237</v>
       </c>
     </row>
     <row r="12">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253558</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253555</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="E2" t="n">
         <v>375096.8088680127</v>
@@ -26326,13 +26326,13 @@
         <v>412753.6070665926</v>
       </c>
       <c r="G2" t="n">
-        <v>442863.404569001</v>
+        <v>442863.4045690012</v>
       </c>
       <c r="H2" t="n">
-        <v>442863.404569001</v>
+        <v>442863.4045690012</v>
       </c>
       <c r="I2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="J2" t="n">
         <v>451572.973425356</v>
@@ -26341,19 +26341,19 @@
         <v>451572.973425356</v>
       </c>
       <c r="L2" t="n">
+        <v>451572.9734253561</v>
+      </c>
+      <c r="M2" t="n">
         <v>451572.973425356</v>
       </c>
-      <c r="M2" t="n">
-        <v>451572.9734253559</v>
-      </c>
       <c r="N2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="O2" t="n">
         <v>451572.973425356</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253561</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353244.2765738487</v>
+        <v>353244.2765738476</v>
       </c>
       <c r="C3" t="n">
-        <v>43511.74761818704</v>
+        <v>43511.74761818814</v>
       </c>
       <c r="D3" t="n">
-        <v>87233.51607513236</v>
+        <v>87233.51607513204</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429537</v>
+        <v>707780.8576429541</v>
       </c>
       <c r="F3" t="n">
-        <v>173736.0360376485</v>
+        <v>173736.0360376484</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177111</v>
+        <v>25288.16188177116</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39037.89416668133</v>
+        <v>39037.89416668194</v>
       </c>
       <c r="J3" t="n">
-        <v>5970.841630865519</v>
+        <v>5970.841630864723</v>
       </c>
       <c r="K3" t="n">
-        <v>6942.380109546472</v>
+        <v>6942.3801095467</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194622</v>
+        <v>41060.19902194614</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383015</v>
+        <v>179249.6449383016</v>
       </c>
       <c r="N3" t="n">
-        <v>45679.31917376341</v>
+        <v>45679.3191737633</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346684.9826106103</v>
+        <v>346684.9826106107</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
       </c>
       <c r="D4" t="n">
-        <v>305279.4906303398</v>
+        <v>305279.4906303399</v>
       </c>
       <c r="E4" t="n">
-        <v>14649.95482219004</v>
+        <v>14649.95482218983</v>
       </c>
       <c r="F4" t="n">
-        <v>14746.47430260433</v>
+        <v>14746.47430260424</v>
       </c>
       <c r="G4" t="n">
-        <v>46071.20600225461</v>
+        <v>46071.20600225453</v>
       </c>
       <c r="H4" t="n">
-        <v>46071.20600225458</v>
+        <v>46071.20600225453</v>
       </c>
       <c r="I4" t="n">
+        <v>45839.31483610843</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45839.3148361085</v>
+      </c>
+      <c r="K4" t="n">
         <v>45839.31483610849</v>
       </c>
-      <c r="J4" t="n">
-        <v>45839.31483610842</v>
-      </c>
-      <c r="K4" t="n">
-        <v>45839.31483610842</v>
-      </c>
       <c r="L4" t="n">
-        <v>45839.31483610842</v>
+        <v>45839.31483610847</v>
       </c>
       <c r="M4" t="n">
-        <v>45839.31483610845</v>
+        <v>45839.31483610849</v>
       </c>
       <c r="N4" t="n">
-        <v>45839.31483610845</v>
+        <v>45839.31483610843</v>
       </c>
       <c r="O4" t="n">
-        <v>45839.31483610847</v>
+        <v>45839.31483610849</v>
       </c>
       <c r="P4" t="n">
-        <v>45839.31483610847</v>
+        <v>45839.31483610849</v>
       </c>
     </row>
     <row r="5">
@@ -26467,46 +26467,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42833.58292690814</v>
+        <v>42833.58292690808</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
       </c>
       <c r="D5" t="n">
-        <v>50823.37311172271</v>
+        <v>50823.37311172269</v>
       </c>
       <c r="E5" t="n">
         <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>88963.40690525345</v>
+        <v>88963.40690525343</v>
       </c>
       <c r="G5" t="n">
         <v>91620.8450068017</v>
       </c>
       <c r="H5" t="n">
-        <v>91620.84500680168</v>
+        <v>91620.8450068017</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="J5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="L5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="P5" t="n">
         <v>95106.4341021553</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-291189.8686860114</v>
+        <v>-291189.8686860104</v>
       </c>
       <c r="C6" t="n">
-        <v>29498.00036925594</v>
+        <v>29498.00036925483</v>
       </c>
       <c r="D6" t="n">
-        <v>8236.593608160612</v>
+        <v>8236.593608161158</v>
       </c>
       <c r="E6" t="n">
-        <v>-421640.3441585244</v>
+        <v>-421987.9630883306</v>
       </c>
       <c r="F6" t="n">
-        <v>135307.6898210863</v>
+        <v>135131.2381558194</v>
       </c>
       <c r="G6" t="n">
-        <v>279883.1916781735</v>
+        <v>279843.6027288268</v>
       </c>
       <c r="H6" t="n">
-        <v>305171.3535599449</v>
+        <v>305131.7646105981</v>
       </c>
       <c r="I6" t="n">
-        <v>271589.330320411</v>
+        <v>271589.3303204104</v>
       </c>
       <c r="J6" t="n">
-        <v>304656.3828562268</v>
+        <v>304656.3828562276</v>
       </c>
       <c r="K6" t="n">
-        <v>303684.8443775459</v>
+        <v>303684.8443775455</v>
       </c>
       <c r="L6" t="n">
-        <v>269567.0254651461</v>
+        <v>269567.0254651462</v>
       </c>
       <c r="M6" t="n">
         <v>131377.5795487906</v>
@@ -26558,10 +26558,10 @@
         <v>264947.9053133292</v>
       </c>
       <c r="O6" t="n">
+        <v>310627.2244870921</v>
+      </c>
+      <c r="P6" t="n">
         <v>310627.2244870923</v>
-      </c>
-      <c r="P6" t="n">
-        <v>310627.2244870922</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="K2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="J2" t="n">
-        <v>31.61020235221387</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221387</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221387</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221389</v>
-      </c>
       <c r="N2" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.6466858622774</v>
+        <v>358.6466858622764</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
       </c>
       <c r="D3" t="n">
-        <v>476.1157511985022</v>
+        <v>476.1157511985019</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.82047985379099</v>
+        <v>22.82047985379034</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="D4" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>1017.90322602686</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-6.039613253960852e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.6466858622774</v>
+        <v>358.6466858622764</v>
       </c>
       <c r="C3" t="n">
-        <v>38.21325740529068</v>
+        <v>38.21325740529164</v>
       </c>
       <c r="D3" t="n">
-        <v>79.25580793093417</v>
+        <v>79.25580793093388</v>
       </c>
       <c r="E3" t="n">
-        <v>613.660949394796</v>
+        <v>613.6609493947964</v>
       </c>
       <c r="F3" t="n">
         <v>152.1907655911211</v>
@@ -26978,10 +26978,10 @@
         <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>36.19240443570357</v>
+        <v>36.19240443570425</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.82047985379099</v>
+        <v>22.82047985379034</v>
       </c>
       <c r="C4" t="n">
-        <v>26.97452717333363</v>
+        <v>26.97452717333429</v>
       </c>
       <c r="D4" t="n">
-        <v>62.31765309779902</v>
+        <v>62.3176530977988</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773697</v>
       </c>
       <c r="F4" t="n">
-        <v>186.5017706245674</v>
+        <v>186.5017706245669</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.35188616209291</v>
+        <v>44.35188616209325</v>
       </c>
       <c r="J4" t="n">
-        <v>22.82047985379122</v>
+        <v>22.82047985379011</v>
       </c>
       <c r="K4" t="n">
-        <v>26.97452717333341</v>
+        <v>26.97452717333429</v>
       </c>
       <c r="L4" t="n">
-        <v>62.31765309779925</v>
+        <v>62.3176530977988</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773694</v>
       </c>
       <c r="N4" t="n">
-        <v>186.5017706245674</v>
+        <v>186.5017706245671</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.82047985379099</v>
+        <v>22.82047985379034</v>
       </c>
       <c r="K4" t="n">
-        <v>26.97452717333363</v>
+        <v>26.97452717333429</v>
       </c>
       <c r="L4" t="n">
-        <v>62.31765309779902</v>
+        <v>62.3176530977988</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773697</v>
       </c>
       <c r="N4" t="n">
-        <v>186.5017706245674</v>
+        <v>186.5017706245669</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27397,13 +27397,13 @@
         <v>324.7090116772263</v>
       </c>
       <c r="I2" t="n">
-        <v>154.8910599957106</v>
+        <v>154.8910599957108</v>
       </c>
       <c r="J2" t="n">
-        <v>58.67529486154672</v>
+        <v>58.67529486154704</v>
       </c>
       <c r="K2" t="n">
-        <v>13.86754861127532</v>
+        <v>13.86754861127646</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27418,16 +27418,16 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>18.39310061141325</v>
+        <v>18.39310061141572</v>
       </c>
       <c r="Q2" t="n">
-        <v>66.60797209390677</v>
+        <v>66.60797209390719</v>
       </c>
       <c r="R2" t="n">
-        <v>125.0173372883179</v>
+        <v>125.0173372883182</v>
       </c>
       <c r="S2" t="n">
-        <v>176.1651495698166</v>
+        <v>176.1651495698167</v>
       </c>
       <c r="T2" t="n">
         <v>216.7843887908163</v>
@@ -27467,22 +27467,22 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>124.9689337381653</v>
       </c>
       <c r="G3" t="n">
         <v>136.5720884426767</v>
       </c>
       <c r="H3" t="n">
-        <v>97.9574061060118</v>
+        <v>104.7850668566028</v>
       </c>
       <c r="I3" t="n">
-        <v>72.96222449038794</v>
+        <v>72.96222449038802</v>
       </c>
       <c r="J3" t="n">
-        <v>31.13405001891987</v>
+        <v>53.95452987271106</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13.2726179046285</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27500,13 +27500,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.68909474793125</v>
+        <v>18.68909474793219</v>
       </c>
       <c r="R3" t="n">
-        <v>74.96277425105598</v>
+        <v>74.96277425105677</v>
       </c>
       <c r="S3" t="n">
-        <v>157.3542209658497</v>
+        <v>134.5337411120594</v>
       </c>
       <c r="T3" t="n">
         <v>197.0553295975817</v>
@@ -27552,34 +27552,34 @@
         <v>167.3442394331333</v>
       </c>
       <c r="H4" t="n">
-        <v>156.4770666259099</v>
+        <v>156.47706662591</v>
       </c>
       <c r="I4" t="n">
         <v>136.001241536563</v>
       </c>
       <c r="J4" t="n">
-        <v>81.27090871888905</v>
+        <v>81.27090871888917</v>
       </c>
       <c r="K4" t="n">
-        <v>53.873837755455</v>
+        <v>53.8738377554552</v>
       </c>
       <c r="L4" t="n">
-        <v>38.73208774694838</v>
+        <v>38.73208774694864</v>
       </c>
       <c r="M4" t="n">
-        <v>37.54636092591248</v>
+        <v>37.54636092591275</v>
       </c>
       <c r="N4" t="n">
-        <v>28.71669752884436</v>
+        <v>28.71669752884463</v>
       </c>
       <c r="O4" t="n">
-        <v>47.0427897340282</v>
+        <v>47.04278973402845</v>
       </c>
       <c r="P4" t="n">
-        <v>59.50774980797162</v>
+        <v>59.50774980797183</v>
       </c>
       <c r="Q4" t="n">
-        <v>97.34935206424197</v>
+        <v>97.34935206424211</v>
       </c>
       <c r="R4" t="n">
         <v>148.2136125529921</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>366.5920465630355</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27637,10 +27637,10 @@
         <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
-        <v>33.53389756610792</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0.2236106924079309</v>
       </c>
       <c r="R5" t="n">
-        <v>65.57242662105223</v>
+        <v>115.3674336481769</v>
       </c>
       <c r="S5" t="n">
         <v>172.6645079492214</v>
@@ -27701,22 +27701,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>107.8500734282763</v>
       </c>
       <c r="F6" t="n">
-        <v>128.6212221673242</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.4898938890125</v>
       </c>
       <c r="H6" t="n">
-        <v>54.19623348224745</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>20.3372734007017</v>
+        <v>70.13228042782632</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27749,16 +27749,16 @@
         <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8852226550407</v>
+        <v>176.0902156279161</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>183.0055801223006</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>192.9310549409576</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>273.3810741433709</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>294.763385616788</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.2760442195644</v>
       </c>
       <c r="H8" t="n">
-        <v>258.8354925157625</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
         <v>136.685125759028</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.29137858519758</v>
+        <v>165.4040387101213</v>
       </c>
       <c r="T8" t="n">
-        <v>214.717169359623</v>
+        <v>214.7171693596231</v>
       </c>
       <c r="U8" t="n">
         <v>251.1925302541847</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.1252785311299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27935,25 +27935,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>35.3324054397151</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>45.53242033047729</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>32.95655226846023</v>
+        <v>32.95655226846046</v>
       </c>
       <c r="G9" t="n">
-        <v>128.9227397589326</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
         <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>64.2628644631298</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867671</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.09559288881304</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -27989,13 +27989,13 @@
         <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>120.6879270245018</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>139.5823230359962</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>146.3635339799432</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28032,28 +28032,28 @@
         <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>66.29456574971167</v>
+        <v>66.29456574971169</v>
       </c>
       <c r="K10" t="n">
-        <v>29.26310570632462</v>
+        <v>29.26310570632468</v>
       </c>
       <c r="L10" t="n">
-        <v>3.613446413741165</v>
+        <v>7.238823902544823</v>
       </c>
       <c r="M10" t="n">
-        <v>4.341129883412066</v>
+        <v>4.341129883412151</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>17.10165812996878</v>
+        <v>17.10165812996885</v>
       </c>
       <c r="P10" t="n">
-        <v>33.88793923037925</v>
+        <v>30.26256174157581</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.61152319847201</v>
+        <v>79.61152319847206</v>
       </c>
       <c r="R10" t="n">
         <v>138.6889896488451</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>4.206412995699793e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>-6.394884621840902e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I17" t="n">
         <v>17.98965543945178</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I20" t="n">
         <v>17.98965543945181</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605488</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.441795722059405</v>
+        <v>1.441795722059402</v>
       </c>
       <c r="H2" t="n">
-        <v>14.76579043854089</v>
+        <v>14.76579043854085</v>
       </c>
       <c r="I2" t="n">
-        <v>55.58482957469528</v>
+        <v>55.58482957469513</v>
       </c>
       <c r="J2" t="n">
-        <v>122.3706096651396</v>
+        <v>122.3706096651392</v>
       </c>
       <c r="K2" t="n">
-        <v>183.4018225799142</v>
+        <v>183.4018225799138</v>
       </c>
       <c r="L2" t="n">
-        <v>227.5261784088898</v>
+        <v>227.5261784088892</v>
       </c>
       <c r="M2" t="n">
-        <v>253.1667130810638</v>
+        <v>253.1667130810631</v>
       </c>
       <c r="N2" t="n">
-        <v>252.2335434503819</v>
+        <v>252.2335434503813</v>
       </c>
       <c r="O2" t="n">
-        <v>242.9263589651368</v>
+        <v>242.9263589651362</v>
       </c>
       <c r="P2" t="n">
-        <v>207.3320270767952</v>
+        <v>207.3320270767947</v>
       </c>
       <c r="Q2" t="n">
-        <v>155.6977177805427</v>
+        <v>155.6977177805423</v>
       </c>
       <c r="R2" t="n">
-        <v>90.56820052581421</v>
+        <v>90.56820052581396</v>
       </c>
       <c r="S2" t="n">
-        <v>32.85492001642874</v>
+        <v>32.85492001642864</v>
       </c>
       <c r="T2" t="n">
-        <v>6.311460773315051</v>
+        <v>6.311460773315034</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1153436577647524</v>
+        <v>0.1153436577647521</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7714287205339552</v>
+        <v>0.7714287205339531</v>
       </c>
       <c r="H3" t="n">
-        <v>7.450377379893726</v>
+        <v>7.450377379893705</v>
       </c>
       <c r="I3" t="n">
-        <v>26.56015550961206</v>
+        <v>26.56015550961198</v>
       </c>
       <c r="J3" t="n">
-        <v>72.88309679395583</v>
+        <v>72.88309679395563</v>
       </c>
       <c r="K3" t="n">
-        <v>124.5688210697308</v>
+        <v>124.5688210697305</v>
       </c>
       <c r="L3" t="n">
-        <v>161.3748596336652</v>
+        <v>161.3748596336645</v>
       </c>
       <c r="M3" t="n">
-        <v>150.6978305711078</v>
+        <v>164.9545137758087</v>
       </c>
       <c r="N3" t="n">
-        <v>154.1621919371243</v>
+        <v>139.9055087324226</v>
       </c>
       <c r="O3" t="n">
-        <v>165.4167242982354</v>
+        <v>165.4167242982348</v>
       </c>
       <c r="P3" t="n">
-        <v>147.3090510289796</v>
+        <v>147.3090510289792</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.47219948429927</v>
+        <v>98.472199484299</v>
       </c>
       <c r="R3" t="n">
-        <v>47.89624985911698</v>
+        <v>47.89624985911686</v>
       </c>
       <c r="S3" t="n">
-        <v>14.32895013798815</v>
+        <v>14.32895013798811</v>
       </c>
       <c r="T3" t="n">
-        <v>3.109399097239932</v>
+        <v>3.109399097239923</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05075188950881285</v>
+        <v>0.05075188950881272</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6467399253254181</v>
+        <v>0.6467399253254164</v>
       </c>
       <c r="H4" t="n">
-        <v>5.750105881529631</v>
+        <v>5.750105881529615</v>
       </c>
       <c r="I4" t="n">
-        <v>19.44923339069531</v>
+        <v>19.44923339069526</v>
       </c>
       <c r="J4" t="n">
-        <v>45.72451272050706</v>
+        <v>45.72451272050694</v>
       </c>
       <c r="K4" t="n">
-        <v>75.13942041508038</v>
+        <v>75.13942041508018</v>
       </c>
       <c r="L4" t="n">
-        <v>96.1525885342899</v>
+        <v>96.15258853428965</v>
       </c>
       <c r="M4" t="n">
-        <v>101.3794230216926</v>
+        <v>101.3794230216923</v>
       </c>
       <c r="N4" t="n">
-        <v>98.96884693638883</v>
+        <v>98.96884693638856</v>
       </c>
       <c r="O4" t="n">
-        <v>91.41374871781458</v>
+        <v>91.41374871781434</v>
       </c>
       <c r="P4" t="n">
-        <v>78.22025424117599</v>
+        <v>78.22025424117578</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.15564956520388</v>
+        <v>54.15564956520373</v>
       </c>
       <c r="R4" t="n">
-        <v>29.07977882417743</v>
+        <v>29.07977882417735</v>
       </c>
       <c r="S4" t="n">
-        <v>11.27091306226206</v>
+        <v>11.27091306226203</v>
       </c>
       <c r="T4" t="n">
-        <v>2.763343317299513</v>
+        <v>2.763343317299506</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0352767231995683</v>
+        <v>0.03527672319956821</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31370,7 +31370,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>157.3072689909255</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
         <v>191.9290409491429</v>
@@ -31382,7 +31382,7 @@
         <v>192.3912514715691</v>
       </c>
       <c r="P6" t="n">
-        <v>163.0046057545602</v>
+        <v>134.9670493543445</v>
       </c>
       <c r="Q6" t="n">
         <v>108.96426215905</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.914033170647244</v>
+        <v>1.914033170647242</v>
       </c>
       <c r="H8" t="n">
-        <v>19.60209220889109</v>
+        <v>19.60209220889108</v>
       </c>
       <c r="I8" t="n">
-        <v>73.79076381137793</v>
+        <v>73.79076381137789</v>
       </c>
       <c r="J8" t="n">
-        <v>162.4511728172216</v>
+        <v>162.4511728172215</v>
       </c>
       <c r="K8" t="n">
-        <v>243.4721969307195</v>
+        <v>243.4721969307194</v>
       </c>
       <c r="L8" t="n">
-        <v>302.0487895769152</v>
+        <v>302.048789576915</v>
       </c>
       <c r="M8" t="n">
-        <v>336.087476975413</v>
+        <v>336.0874769754129</v>
       </c>
       <c r="N8" t="n">
-        <v>341.5257237215146</v>
+        <v>341.5257237215143</v>
       </c>
       <c r="O8" t="n">
-        <v>322.493056380891</v>
+        <v>322.4930563808908</v>
       </c>
       <c r="P8" t="n">
-        <v>275.2403624805372</v>
+        <v>275.240362480537</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.6940495567327</v>
+        <v>206.6940495567326</v>
       </c>
       <c r="R8" t="n">
         <v>120.23238615567</v>
       </c>
       <c r="S8" t="n">
-        <v>43.61603087612411</v>
+        <v>43.61603087612408</v>
       </c>
       <c r="T8" t="n">
-        <v>8.378680204508314</v>
+        <v>8.378680204508308</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1531226536517794</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,46 +31595,46 @@
         <v>1.024098030879797</v>
       </c>
       <c r="H9" t="n">
-        <v>9.890630982444359</v>
+        <v>9.890630982444353</v>
       </c>
       <c r="I9" t="n">
-        <v>35.25951553687022</v>
+        <v>35.2595155368702</v>
       </c>
       <c r="J9" t="n">
-        <v>96.75480562798998</v>
+        <v>96.75480562798992</v>
       </c>
       <c r="K9" t="n">
-        <v>165.3693736969364</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>222.3595307837911</v>
+        <v>222.3595307837909</v>
       </c>
       <c r="M9" t="n">
-        <v>199.9629954989595</v>
+        <v>254.2466940469417</v>
       </c>
       <c r="N9" t="n">
-        <v>243.454372208257</v>
+        <v>216.6986083828516</v>
       </c>
       <c r="O9" t="n">
-        <v>243.6589731628788</v>
+        <v>243.6589731628786</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177395</v>
+        <v>195.5578073177394</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.7252153102001</v>
+        <v>130.7252153102</v>
       </c>
       <c r="R9" t="n">
-        <v>63.58391107515094</v>
+        <v>63.58391107515091</v>
       </c>
       <c r="S9" t="n">
-        <v>19.0221717577892</v>
+        <v>19.02217175778919</v>
       </c>
       <c r="T9" t="n">
-        <v>4.127833729730409</v>
+        <v>4.127833729730407</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.06737487045261822</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.8585693874071345</v>
       </c>
       <c r="H10" t="n">
-        <v>7.633462371674351</v>
+        <v>7.633462371674347</v>
       </c>
       <c r="I10" t="n">
-        <v>25.8195230322073</v>
+        <v>25.81952303220729</v>
       </c>
       <c r="J10" t="n">
-        <v>60.70085568968445</v>
+        <v>60.70085568968441</v>
       </c>
       <c r="K10" t="n">
-        <v>99.75015246421076</v>
+        <v>99.7501524642107</v>
       </c>
       <c r="L10" t="n">
         <v>127.6458523786935</v>
       </c>
       <c r="M10" t="n">
-        <v>134.584654064193</v>
+        <v>134.5846540641929</v>
       </c>
       <c r="N10" t="n">
-        <v>131.3845318020392</v>
+        <v>131.3845318020391</v>
       </c>
       <c r="O10" t="n">
-        <v>121.354880321874</v>
+        <v>121.3548803218739</v>
       </c>
       <c r="P10" t="n">
-        <v>103.8400648187684</v>
+        <v>103.8400648187683</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.89347843097383</v>
+        <v>71.89347843097379</v>
       </c>
       <c r="R10" t="n">
-        <v>38.60440172832445</v>
+        <v>38.60440172832442</v>
       </c>
       <c r="S10" t="n">
-        <v>14.96252286963161</v>
+        <v>14.9625228696316</v>
       </c>
       <c r="T10" t="n">
-        <v>3.668432837103212</v>
+        <v>3.66843283710321</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.04683105749493467</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>91.97589254290277</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>252.3888791422508</v>
       </c>
       <c r="K15" t="n">
         <v>431.3727943633186</v>
       </c>
       <c r="L15" t="n">
-        <v>177.6767442523754</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>676.8722690705085</v>
@@ -32096,7 +32096,7 @@
         <v>510.1205617239364</v>
       </c>
       <c r="Q15" t="n">
-        <v>341.0020861870882</v>
+        <v>254.5731981840056</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>431.3727943633186</v>
+        <v>405.1617361945487</v>
       </c>
       <c r="L18" t="n">
         <v>580.0339567307518</v>
@@ -32327,10 +32327,10 @@
         <v>694.7870639365084</v>
       </c>
       <c r="O18" t="n">
-        <v>233.2372133528144</v>
+        <v>635.5944258311906</v>
       </c>
       <c r="P18" t="n">
-        <v>510.1205617239364</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>341.0020861870882</v>
@@ -32549,16 +32549,16 @@
         <v>91.97589254290276</v>
       </c>
       <c r="J21" t="n">
-        <v>219.0320816783173</v>
+        <v>252.3888791422507</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>431.3727943633185</v>
       </c>
       <c r="L21" t="n">
         <v>580.0339567307517</v>
       </c>
       <c r="M21" t="n">
-        <v>676.8722690705084</v>
+        <v>349.9841162176153</v>
       </c>
       <c r="N21" t="n">
         <v>694.7870639365083</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I23" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171636</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L23" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829625</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R23" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S23" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T23" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H24" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K24" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155584</v>
+        <v>154.4789322578934</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879672</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160633</v>
       </c>
       <c r="O24" t="n">
-        <v>211.6584993001651</v>
+        <v>654.1164009578287</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892353</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T24" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H25" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33035,10 +33035,10 @@
         <v>696.597129487967</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O27" t="n">
-        <v>211.6584993001647</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P27" t="n">
         <v>524.9860796892351</v>
@@ -33263,7 +33263,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9435090247271</v>
+        <v>156.5246331350996</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155585</v>
@@ -33275,16 +33275,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>211.6584993001647</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33506,16 +33506,16 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>696.597129487967</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N33" t="n">
-        <v>272.5760810583992</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33743,10 +33743,10 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>696.597129487967</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N36" t="n">
-        <v>663.587753333304</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578284</v>
@@ -33971,13 +33971,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J39" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>248.9105443196368</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>593.4871659531818</v>
       </c>
       <c r="M39" t="n">
         <v>696.597129487967</v>
@@ -33992,7 +33992,7 @@
         <v>524.9860796892351</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34211,7 +34211,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K42" t="n">
-        <v>156.5246331350997</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L42" t="n">
         <v>596.9368339155585</v>
@@ -34223,16 +34223,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34448,7 +34448,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K45" t="n">
-        <v>392.4972796419682</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155585</v>
@@ -34457,13 +34457,13 @@
         <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O45" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>22.82047985379099</v>
+        <v>22.82047985379034</v>
       </c>
       <c r="N2" t="n">
-        <v>22.82047985379099</v>
+        <v>22.82047985379034</v>
       </c>
       <c r="O2" t="n">
-        <v>12.82814754345011</v>
+        <v>12.82814754344946</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22.82047985379099</v>
+        <v>22.82047985379034</v>
       </c>
       <c r="M3" t="n">
-        <v>8.563796649089523</v>
+        <v>22.82047985379034</v>
       </c>
       <c r="N3" t="n">
-        <v>22.82047985379099</v>
+        <v>8.563796649089284</v>
       </c>
       <c r="O3" t="n">
-        <v>22.82047985379099</v>
+        <v>22.82047985379034</v>
       </c>
       <c r="P3" t="n">
-        <v>13.33464361464931</v>
+        <v>13.33464361464891</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>18.75288921105129</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
         <v>49.79500702712463</v>
@@ -35030,7 +35030,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="P6" t="n">
-        <v>29.03019834022993</v>
+        <v>0.9926419400142784</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.38234588573897</v>
+        <v>23.38234588573883</v>
       </c>
       <c r="L8" t="n">
-        <v>66.28237460692793</v>
+        <v>66.28237460692776</v>
       </c>
       <c r="M8" t="n">
-        <v>105.7412437481403</v>
+        <v>105.7412437481401</v>
       </c>
       <c r="N8" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="O8" t="n">
-        <v>92.39484495920428</v>
+        <v>92.39484495920411</v>
       </c>
       <c r="P8" t="n">
-        <v>44.00736672526762</v>
+        <v>44.00736672526745</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.52793472257738</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>83.8051510039169</v>
+        <v>83.80515100391676</v>
       </c>
       <c r="M9" t="n">
-        <v>57.82896157694119</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="N9" t="n">
-        <v>112.1126601249237</v>
+        <v>85.35689629951827</v>
       </c>
       <c r="O9" t="n">
-        <v>101.0627287184343</v>
+        <v>101.0627287184342</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340929</v>
+        <v>61.58339990340917</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35340,7 +35340,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.698987336806027</v>
+        <v>3.698987336805942</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.353130222644</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>125.5512524755841</v>
       </c>
       <c r="K15" t="n">
         <v>293.5313553889596</v>
       </c>
       <c r="L15" t="n">
-        <v>39.12236447250125</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>534.7382351484903</v>
@@ -35744,7 +35744,7 @@
         <v>376.1461543096062</v>
       </c>
       <c r="Q15" t="n">
-        <v>201.0203121010667</v>
+        <v>114.5914240979841</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>64.98149176064253</v>
+        <v>64.9814917606424</v>
       </c>
       <c r="K16" t="n">
-        <v>237.9328724009512</v>
+        <v>237.9328724009511</v>
       </c>
       <c r="L16" t="n">
-        <v>360.5594669321194</v>
+        <v>360.5594669321193</v>
       </c>
       <c r="M16" t="n">
         <v>390.6534674441019</v>
       </c>
       <c r="N16" t="n">
-        <v>386.8541126789392</v>
+        <v>386.8541126789391</v>
       </c>
       <c r="O16" t="n">
-        <v>341.1443109342915</v>
+        <v>341.1443109342914</v>
       </c>
       <c r="P16" t="n">
-        <v>268.1496276274756</v>
+        <v>268.1496276274755</v>
       </c>
       <c r="Q16" t="n">
         <v>101.3750441421529</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>293.5313553889596</v>
+        <v>267.3202972201897</v>
       </c>
       <c r="L18" t="n">
         <v>441.4795769508776</v>
@@ -35975,10 +35975,10 @@
         <v>563.4453518531751</v>
       </c>
       <c r="O18" t="n">
-        <v>90.64096890836991</v>
+        <v>492.9981813867462</v>
       </c>
       <c r="P18" t="n">
-        <v>376.1461543096062</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>201.0203121010667</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.59169411285642</v>
+        <v>96.59169411285635</v>
       </c>
       <c r="K19" t="n">
-        <v>269.5430747531651</v>
+        <v>269.543074753165</v>
       </c>
       <c r="L19" t="n">
-        <v>392.1696692843333</v>
+        <v>392.1696692843332</v>
       </c>
       <c r="M19" t="n">
         <v>422.2636697963158</v>
       </c>
       <c r="N19" t="n">
-        <v>418.4643150311531</v>
+        <v>418.464315031153</v>
       </c>
       <c r="O19" t="n">
         <v>372.7545132865054</v>
@@ -36060,7 +36060,7 @@
         <v>299.7598299796895</v>
       </c>
       <c r="Q19" t="n">
-        <v>132.9852464943669</v>
+        <v>132.9852464943668</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>92.19445501165063</v>
+        <v>125.5512524755841</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>293.5313553889595</v>
       </c>
       <c r="L21" t="n">
         <v>441.4795769508775</v>
       </c>
       <c r="M21" t="n">
-        <v>534.73823514849</v>
+        <v>207.850082295597</v>
       </c>
       <c r="N21" t="n">
         <v>563.445351853175</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.59169411285636</v>
+        <v>96.59169411285632</v>
       </c>
       <c r="K22" t="n">
-        <v>269.5430747531651</v>
+        <v>269.543074753165</v>
       </c>
       <c r="L22" t="n">
-        <v>392.1696692843333</v>
+        <v>392.1696692843332</v>
       </c>
       <c r="M22" t="n">
-        <v>422.2636697963158</v>
+        <v>422.2636697963157</v>
       </c>
       <c r="N22" t="n">
-        <v>418.4643150311531</v>
+        <v>418.464315031153</v>
       </c>
       <c r="O22" t="n">
-        <v>372.7545132865054</v>
+        <v>372.7545132865053</v>
       </c>
       <c r="P22" t="n">
-        <v>299.7598299796895</v>
+        <v>299.7598299796894</v>
       </c>
       <c r="Q22" t="n">
         <v>132.9852464943668</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P23" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449188</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K24" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356842</v>
+        <v>15.92455247801921</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>583.69227063273</v>
       </c>
       <c r="O24" t="n">
-        <v>69.06225485572071</v>
+        <v>511.5201565133842</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749051</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36683,10 +36683,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O27" t="n">
-        <v>69.06225485572025</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749049</v>
@@ -36753,19 +36753,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36911,7 +36911,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
-        <v>306.1020700503681</v>
+        <v>18.68319416074064</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356843</v>
@@ -36923,16 +36923,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>69.06225485572025</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37154,16 +37154,16 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N33" t="n">
-        <v>141.2343689750659</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817348</v>
@@ -37391,10 +37391,10 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N36" t="n">
-        <v>532.2460412499707</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O36" t="n">
         <v>511.520156513384</v>
@@ -37467,16 +37467,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N37" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>111.0691053452777</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>454.9327861733077</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
@@ -37640,7 +37640,7 @@
         <v>391.0116722749049</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
         <v>381.9794231908712</v>
@@ -37719,7 +37719,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641602</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K42" t="n">
-        <v>18.6831941607407</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L42" t="n">
         <v>458.3824541356843</v>
@@ -37871,16 +37871,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38096,7 +38096,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K45" t="n">
-        <v>254.6558406676093</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356843</v>
@@ -38105,13 +38105,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O45" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193553</v>
       </c>
       <c r="K46" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
